--- a/biology/Écologie/Cryptisme/Cryptisme.xlsx
+++ b/biology/Écologie/Cryptisme/Cryptisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En écologie, le cryptisme (du grec kryptos, « caché ») est la condition dans laquelle un organisme animal ou végétal[1]  évite d'être observé ou détecté par d'autres animaux. Ce comportement actif ou passif peut être une stratégie de prédation (en) ou de défense contre les prédateurs.
-Cette tromperie animale ou végétale joue surtout sur la couleur et la forme (cryptisme visuel) mais elle peut être aussi olfactive (phéromones) et auditive. Il existe plusieurs stratégies de cryptisme : camouflage par mimétisme  cryptique, par contre-coloration ou par coloration disruptive ; comportement nocturne ou crépusculaire ; vie souterraine[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En écologie, le cryptisme (du grec kryptos, « caché ») est la condition dans laquelle un organisme animal ou végétal  évite d'être observé ou détecté par d'autres animaux. Ce comportement actif ou passif peut être une stratégie de prédation (en) ou de défense contre les prédateurs.
+Cette tromperie animale ou végétale joue surtout sur la couleur et la forme (cryptisme visuel) mais elle peut être aussi olfactive (phéromones) et auditive. Il existe plusieurs stratégies de cryptisme : camouflage par mimétisme  cryptique, par contre-coloration ou par coloration disruptive ; comportement nocturne ou crépusculaire ; vie souterraine.
 </t>
         </is>
       </c>
